--- a/Datos/libros/convert/xlsx/René Descartes - Discurso del método_esp.xlsx
+++ b/Datos/libros/convert/xlsx/René Descartes - Discurso del método_esp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7ba5ab37b782061/Estudios/UNI/Curso NLP/Proyecto/Traductor-Quechua-Spanish-Spanish-Quechua/Datos/libros/convert/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7ba5ab37b782061/Estudios/UNI/Curso NLP/Proyecto/Traductor-Quechua-Spanish-Spanish-Quechua/Datos/libros/convert/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF897536-A7F8-4821-807B-FD1668404F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{BF897536-A7F8-4821-807B-FD1668404F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9BC0945-375A-4D01-A586-AAC3B9699758}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="31800" xr2:uid="{3F4D4399-E22D-48B2-BBA6-786A54734B0A}"/>
   </bookViews>
@@ -1614,12 +1614,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1634,8 +1640,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1952,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEDFAC41-60EA-4F81-93EC-E2BE41E98E52}">
   <dimension ref="A1:A522"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3279,7 +3286,7 @@
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="A265" s="1" t="s">
         <v>263</v>
       </c>
     </row>
